--- a/doc/Armadillo_final_results.xlsx
+++ b/doc/Armadillo_final_results.xlsx
@@ -164,7 +164,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +186,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8.25"/>
@@ -245,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,23 +274,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,13 +497,13 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
@@ -499,44 +519,44 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -544,22 +564,22 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="7" t="n">
         <v>2383</v>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="C3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="n">
         <v>2179</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="E3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="n">
         <v>2604</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -588,19 +608,19 @@
       <c r="B4" s="1" t="n">
         <v>1695</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1944</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1864</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -629,19 +649,19 @@
       <c r="B5" s="1" t="n">
         <v>1177</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1177</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1179</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -670,19 +690,19 @@
       <c r="B6" s="1" t="n">
         <v>1220</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1245</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -711,19 +731,19 @@
       <c r="B7" s="1" t="n">
         <v>847</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>979</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>775</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -752,19 +772,19 @@
       <c r="B8" s="1" t="n">
         <v>1277</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1474</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1332</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -793,19 +813,19 @@
       <c r="B9" s="1" t="n">
         <v>1345</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1551</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1371</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -834,19 +854,19 @@
       <c r="B10" s="1" t="n">
         <v>1396</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1638</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1388</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -875,19 +895,19 @@
       <c r="B11" s="1" t="n">
         <v>1468</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1704</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1384</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="n">
@@ -916,19 +936,19 @@
       <c r="B12" s="1" t="n">
         <v>1196</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1195</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1483</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -957,19 +977,19 @@
       <c r="B13" s="1" t="n">
         <v>2212</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1396</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>2429</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
@@ -998,19 +1018,19 @@
       <c r="B14" s="1" t="n">
         <v>1853</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1878</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -1039,19 +1059,19 @@
       <c r="B15" s="1" t="n">
         <v>4614</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2360</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>5426</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -1080,19 +1100,19 @@
       <c r="B16" s="1" t="n">
         <v>4107</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>3474</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="8" t="n">
         <v>0.8667</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>4940</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -1121,19 +1141,19 @@
       <c r="B17" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1761</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>4482</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
@@ -1162,19 +1182,19 @@
       <c r="B18" s="1" t="n">
         <v>1477</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1404</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>1458</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -1203,19 +1223,19 @@
       <c r="B19" s="1" t="n">
         <v>1484</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1632</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>1625</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="n">
@@ -1244,19 +1264,19 @@
       <c r="B20" s="1" t="n">
         <v>1806</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2127</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="n">
@@ -1285,19 +1305,19 @@
       <c r="B21" s="1" t="n">
         <v>3584</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>3919</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>3395</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1326,19 +1346,19 @@
       <c r="B22" s="1" t="n">
         <v>4904</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2438</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>4591</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="n">
@@ -1367,19 +1387,19 @@
       <c r="B23" s="1" t="n">
         <v>1649</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1841</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2371</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="n">
@@ -1408,19 +1428,19 @@
       <c r="B24" s="1" t="n">
         <v>2297</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2570</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3166</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="n">
@@ -1449,19 +1469,19 @@
       <c r="B25" s="1" t="n">
         <v>3717</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>4331</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4386</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="n">
@@ -1490,19 +1510,19 @@
       <c r="B26" s="1" t="n">
         <v>1599</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1669</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>1712</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1531,19 +1551,19 @@
       <c r="B27" s="1" t="n">
         <v>1532</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>1696</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1722</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="n">
@@ -1572,19 +1592,19 @@
       <c r="B28" s="1" t="n">
         <v>2058</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>1758</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1613,19 +1633,19 @@
       <c r="B29" s="1" t="n">
         <v>3595</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1787</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>3103</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="8" t="n">
         <v>0.8333</v>
       </c>
       <c r="H29" s="1" t="n">
@@ -1654,19 +1674,19 @@
       <c r="B30" s="1" t="n">
         <v>3797</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="8" t="n">
         <v>0.933</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2052</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="8" t="n">
         <v>0.933</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>3375</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="8" t="n">
         <v>0.6667</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -1695,19 +1715,19 @@
       <c r="B31" s="1" t="n">
         <v>7840</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="8" t="n">
         <v>0.8333</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>2216</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="8" t="n">
         <v>0.7333</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>4458</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="8" t="n">
         <v>0.8333</v>
       </c>
       <c r="H31" s="1" t="n">
@@ -1736,19 +1756,19 @@
       <c r="B32" s="1" t="n">
         <v>7501</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="8" t="n">
         <v>0.8</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>2520</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="8" t="n">
         <v>0.7333</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4425</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="8" t="n">
         <v>0.6333</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -1777,19 +1797,19 @@
       <c r="B33" s="1" t="n">
         <v>1563</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>1514</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1657</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="n">
@@ -1818,19 +1838,19 @@
       <c r="B34" s="1" t="n">
         <v>1681</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1697</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1874</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -1859,19 +1879,19 @@
       <c r="B35" s="1" t="n">
         <v>3336</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>2279</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="8" t="n">
         <v>0.9667</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="n">
@@ -1900,19 +1920,19 @@
       <c r="B36" s="1" t="n">
         <v>1362</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>1495</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>1483</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -1941,19 +1961,19 @@
       <c r="B37" s="1" t="n">
         <v>4667</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="8" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1897</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2737</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="n">
@@ -1975,52 +1995,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="true" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="n">
+    <row r="38" s="9" customFormat="true" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="10" t="n">
         <f aca="false">SUM(B3:B37)</f>
         <v>91242</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="11" t="n">
         <f aca="false">AVERAGE(C3:C37)</f>
         <v>0.971425714285714</v>
       </c>
-      <c r="D38" s="7" t="n">
+      <c r="D38" s="10" t="n">
         <f aca="false">SUM(D3:D37)</f>
         <v>68953</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E38" s="11" t="n">
         <f aca="false">AVERAGE(E3:E37)</f>
         <v>0.966662857142857</v>
       </c>
-      <c r="F38" s="7" t="n">
+      <c r="F38" s="10" t="n">
         <f aca="false">SUM(F3:F37)</f>
         <v>87727</v>
       </c>
-      <c r="G38" s="8" t="n">
+      <c r="G38" s="11" t="n">
         <f aca="false">AVERAGE(G3:G37)</f>
         <v>0.969522857142857</v>
       </c>
-      <c r="H38" s="6" t="n">
+      <c r="H38" s="9" t="n">
         <f aca="false">SUM(H3:H37)</f>
         <v>74982</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="12" t="n">
         <f aca="false">AVERAGE(I3:I37)</f>
         <v>0.966665714285714</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="9" t="n">
         <f aca="false">SUM(J3:J37)</f>
         <v>62981</v>
       </c>
-      <c r="K38" s="9" t="n">
+      <c r="K38" s="12" t="n">
         <f aca="false">AVERAGE(K3:K37)</f>
         <v>0.941905714285714</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="L38" s="9" t="n">
         <f aca="false">SUM(L3:L37)</f>
         <v>95391</v>
       </c>
-      <c r="M38" s="9" t="n">
+      <c r="M38" s="12" t="n">
         <f aca="false">AVERAGE(M3:M37)</f>
         <v>0.968574285714286</v>
       </c>

--- a/doc/Armadillo_final_results.xlsx
+++ b/doc/Armadillo_final_results.xlsx
@@ -5,10 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="samples=100 similarity" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="samples=100 similarity" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="samples=200 similarity and doub" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="similarity" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="termination" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="armadillos" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="lrate" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="51">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -153,6 +158,27 @@
   <si>
     <t xml:space="preserve">TEST30N4 </t>
   </si>
+  <si>
+    <t xml:space="preserve">Gen(200,0.05,similarity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen(200,0.05,double)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gao(50,0.05,Similar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gao(150,0.05,Similar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gao(100,0.005,Similar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gao(200,0.01,Similar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gao(200,0.05,Similar)</t>
+  </si>
 </sst>
 </file>
 
@@ -164,10 +190,10 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -188,9 +214,16 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -204,8 +237,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
@@ -253,20 +286,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,7 +303,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -290,19 +335,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,178 +355,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546a"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ed7d31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="ffc000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472c4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70ad47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563c1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954f72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -497,13 +362,13 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
@@ -519,67 +384,67 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="1" t="n">
         <v>2383</v>
       </c>
-      <c r="C3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>2179</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>2604</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -601,26 +466,26 @@
         <v>0.9667</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1695</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1944</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1864</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -642,26 +507,26 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1177</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1177</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1179</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -683,26 +548,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>1220</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1401</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1245</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -724,26 +589,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>847</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>979</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>775</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -765,26 +630,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1277</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1474</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1332</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -806,26 +671,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1345</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1551</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>1371</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -847,26 +712,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1396</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1638</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>1388</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -888,26 +753,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1468</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1704</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>1384</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="n">
@@ -929,26 +794,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1196</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1195</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>1483</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -970,26 +835,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2212</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1396</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>2429</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="n">
@@ -1011,26 +876,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1853</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1878</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="n">
@@ -1052,26 +917,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>4614</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2360</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>5426</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -1093,26 +958,26 @@
         <v>0.9667</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>4107</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>3474</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.8667</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>4940</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="H16" s="1" t="n">
@@ -1134,26 +999,26 @@
         <v>0.8667</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>3003</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1761</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>4482</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
@@ -1175,26 +1040,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>1477</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1404</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>1458</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -1216,26 +1081,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>1484</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>1632</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>1625</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="n">
@@ -1257,26 +1122,26 @@
         <v>0.8667</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>1806</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2127</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="n">
@@ -1298,26 +1163,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>3584</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>3919</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>3395</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="n">
@@ -1339,26 +1204,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>4904</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2438</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>4591</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="n">
@@ -1380,26 +1245,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>1649</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1841</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2371</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="n">
@@ -1421,26 +1286,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2297</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2570</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3166</v>
       </c>
-      <c r="G24" s="8" t="n">
+      <c r="G24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="n">
@@ -1462,26 +1327,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>3717</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>4331</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4386</v>
       </c>
-      <c r="G25" s="8" t="n">
+      <c r="G25" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="n">
@@ -1503,26 +1368,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>1599</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>1669</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>1712</v>
       </c>
-      <c r="G26" s="8" t="n">
+      <c r="G26" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="n">
@@ -1544,26 +1409,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>1532</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>1696</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1722</v>
       </c>
-      <c r="G27" s="8" t="n">
+      <c r="G27" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="n">
@@ -1585,26 +1450,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2058</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>1758</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="n">
@@ -1626,26 +1491,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>3595</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1787</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>3103</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="4" t="n">
         <v>0.8333</v>
       </c>
       <c r="H29" s="1" t="n">
@@ -1667,26 +1532,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>3797</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="4" t="n">
         <v>0.933</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2052</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="4" t="n">
         <v>0.933</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>3375</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="4" t="n">
         <v>0.6667</v>
       </c>
       <c r="H30" s="1" t="n">
@@ -1708,26 +1573,26 @@
         <v>0.9667</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>7840</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="4" t="n">
         <v>0.8333</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>2216</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="4" t="n">
         <v>0.7333</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>4458</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="4" t="n">
         <v>0.8333</v>
       </c>
       <c r="H31" s="1" t="n">
@@ -1749,26 +1614,26 @@
         <v>0.7333</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>7501</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="4" t="n">
         <v>0.8</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>2520</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="4" t="n">
         <v>0.7333</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4425</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="4" t="n">
         <v>0.6333</v>
       </c>
       <c r="H32" s="1" t="n">
@@ -1790,26 +1655,26 @@
         <v>0.6333</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1563</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>1514</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>1657</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="n">
@@ -1831,26 +1696,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1681</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1697</v>
       </c>
-      <c r="E34" s="8" t="n">
+      <c r="E34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1874</v>
       </c>
-      <c r="G34" s="8" t="n">
+      <c r="G34" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="n">
@@ -1872,26 +1737,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>3336</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>2279</v>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="E35" s="4" t="n">
         <v>0.9667</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2612</v>
       </c>
-      <c r="G35" s="8" t="n">
+      <c r="G35" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="n">
@@ -1913,26 +1778,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1362</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>1495</v>
       </c>
-      <c r="E36" s="8" t="n">
+      <c r="E36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>1483</v>
       </c>
-      <c r="G36" s="8" t="n">
+      <c r="G36" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="n">
@@ -1954,26 +1819,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>4667</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1897</v>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="E37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2737</v>
       </c>
-      <c r="G37" s="8" t="n">
+      <c r="G37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="n">
@@ -1995,52 +1860,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="true" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="10" t="n">
+    <row r="38" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="5" t="n">
         <f aca="false">SUM(B3:B37)</f>
         <v>91242</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C38" s="6" t="n">
         <f aca="false">AVERAGE(C3:C37)</f>
         <v>0.971425714285714</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="5" t="n">
         <f aca="false">SUM(D3:D37)</f>
         <v>68953</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E38" s="6" t="n">
         <f aca="false">AVERAGE(E3:E37)</f>
         <v>0.966662857142857</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="5" t="n">
         <f aca="false">SUM(F3:F37)</f>
         <v>87727</v>
       </c>
-      <c r="G38" s="11" t="n">
+      <c r="G38" s="6" t="n">
         <f aca="false">AVERAGE(G3:G37)</f>
         <v>0.969522857142857</v>
       </c>
-      <c r="H38" s="9" t="n">
+      <c r="H38" s="5" t="n">
         <f aca="false">SUM(H3:H37)</f>
         <v>74982</v>
       </c>
-      <c r="I38" s="12" t="n">
+      <c r="I38" s="7" t="n">
         <f aca="false">AVERAGE(I3:I37)</f>
         <v>0.966665714285714</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="J38" s="5" t="n">
         <f aca="false">SUM(J3:J37)</f>
         <v>62981</v>
       </c>
-      <c r="K38" s="12" t="n">
+      <c r="K38" s="7" t="n">
         <f aca="false">AVERAGE(K3:K37)</f>
         <v>0.941905714285714</v>
       </c>
-      <c r="L38" s="9" t="n">
+      <c r="L38" s="5" t="n">
         <f aca="false">SUM(L3:L37)</f>
         <v>95391</v>
       </c>
-      <c r="M38" s="12" t="n">
+      <c r="M38" s="7" t="n">
         <f aca="false">AVERAGE(M3:M37)</f>
         <v>0.968574285714286</v>
       </c>
@@ -2054,4 +1919,3997 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>4170.93</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>4170.93</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>3722.87</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>3722.87</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>2352.87</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>2352.87</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8" t="n">
+        <v>2838.4</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>2838.4</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>1795.67</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>1795.67</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="n">
+        <v>2842.33</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>2842.33</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="n">
+        <v>3077.83</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>3077.83</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="n">
+        <v>3090.3</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>3090.3</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="n">
+        <v>3243.53</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>3243.53</v>
+      </c>
+      <c r="E11" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>2375.5</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>2375.5</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>2825.33</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>2825.33</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>3824.8</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="n">
+        <v>3824.8</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>4596.67</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>4596.67</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>7587.07</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>7587.07</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="n">
+        <v>3382.6</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>3382.6</v>
+      </c>
+      <c r="E17" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>3012</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8" t="n">
+        <v>3562.87</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>3562.87</v>
+      </c>
+      <c r="E19" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8" t="n">
+        <v>3915.7</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>3915.7</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="8" t="n">
+        <v>7485.3</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>7485.3</v>
+      </c>
+      <c r="E21" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="8" t="n">
+        <v>3973.6</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>3973.6</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <v>5124.97</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>5124.97</v>
+      </c>
+      <c r="E23" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>6800.9</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>6800.9</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="8" t="n">
+        <v>9869.93</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>9869.93</v>
+      </c>
+      <c r="E25" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="n">
+        <v>3670</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>3670</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8" t="n">
+        <v>3687.33</v>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>3687.33</v>
+      </c>
+      <c r="E27" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8" t="n">
+        <v>3658.67</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>3658.67</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="8" t="n">
+        <v>3545.7</v>
+      </c>
+      <c r="C29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>3545.7</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v>3963.67</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>3963.67</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>0.8667</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v>4374.67</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>4374.67</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>0.7333</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v>4535.87</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>4535.87</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0.5667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v>3254.53</v>
+      </c>
+      <c r="C33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>3254.53</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="8" t="n">
+        <v>3839.13</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>3839.13</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="8" t="n">
+        <v>4886.67</v>
+      </c>
+      <c r="C35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>4886.67</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="8" t="n">
+        <v>3319.77</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>3319.77</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="8" t="n">
+        <v>4429.63</v>
+      </c>
+      <c r="C37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>4429.63</v>
+      </c>
+      <c r="E37" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="12" t="n">
+        <f aca="false">SUM(B3:B37)</f>
+        <v>142637.61</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <f aca="false">AVERAGE(C3:C37)</f>
+        <v>0.98</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>142637.61</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <f aca="false">AVERAGE(E3:E37)</f>
+        <v>0.976191428571429</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2179</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2364</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2269</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2088</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2278</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2172</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1474</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2231</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2256</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2165</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2106</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2113</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2360</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>3027</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>3474</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>3117</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4064</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1761</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2086</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>2213</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3557</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3919</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>7132</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3722</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2754</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2909</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2570</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3382</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>4331</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>3780</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2612</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1758</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>2594</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1787</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>2285</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.933</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2368</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2216</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2330</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2378</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1514</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>2577</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>2527</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2279</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>3302</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>3817</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="n">
+        <f aca="false">SUM(B2:B36)</f>
+        <v>68953</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <f aca="false">AVERAGE(C2:C36)</f>
+        <v>0.966662857142857</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">SUM(D2:D36)</f>
+        <v>95391</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <f aca="false">AVERAGE(E2:E36)</f>
+        <v>0.968574285714286</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <f aca="false">SUM(F2:F36)</f>
+        <v>74982</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <f aca="false">AVERAGE(G2:G36)</f>
+        <v>0.966665714285714</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2604</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2429</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>5426</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>4064</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4940</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>4482</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1458</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1625</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3722</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3395</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4591</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2371</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3166</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>5085</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1722</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>3375</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>4458</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>4425</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0.6333</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2612</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2737</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="n">
+        <f aca="false">SUM(B2:B36)</f>
+        <v>74982</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <f aca="false">AVERAGE(C2:C36)</f>
+        <v>0.966665714285714</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">SUM(D2:D36)</f>
+        <v>87727</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <f aca="false">AVERAGE(E2:E36)</f>
+        <v>0.969522857142857</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>3248</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>2855</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1769</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>2187</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2141</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2286</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2373</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2427</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>2159</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>2929</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>3646</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2317</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>4064</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>5760</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2538</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>2215</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>2715</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2939</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>3722</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>5465</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>3116</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>3788</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>5148</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>5085</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>7416</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>2731</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>2781</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>2746</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>2748</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2926</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>3923</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>2529</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>2866</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>3714</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2445</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>3937</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="n">
+        <f aca="false">SUM(B2:B36)</f>
+        <v>39717</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <f aca="false">AVERAGE(C2:C36)</f>
+        <v>0.939045714285714</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">SUM(D2:D36)</f>
+        <v>74982</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <f aca="false">AVERAGE(E2:E36)</f>
+        <v>0.966665714285714</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <f aca="false">SUM(F2:F36)</f>
+        <v>109121</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <f aca="false">AVERAGE(G2:G36)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2239</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2657</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4064</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>3722</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2411</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2690</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>3573</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>2029</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0.6333</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2438</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.4667</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="n">
+        <f aca="false">SUM(B2:B36)</f>
+        <v>43213</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <f aca="false">AVERAGE(C2:C36)</f>
+        <v>0.924765714285714</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <f aca="false">SUM(D2:D36)</f>
+        <v>44331</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <f aca="false">AVERAGE(E2:E36)</f>
+        <v>0.94286</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <f aca="false">SUM(F2:F36)</f>
+        <v>74982</v>
+      </c>
+      <c r="G37" s="7" t="n">
+        <f aca="false">AVERAGE(G2:G36)</f>
+        <v>0.966665714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/Armadillo_final_results.xlsx
+++ b/doc/Armadillo_final_results.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="samples=100 similarity" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="samples=200 similarity and doub" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="similarity" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="termination" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="armadillos" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="lrate" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="samples=100 similarity" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="samples=200 similarity and doub" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="similarity" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="termination" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="armadillos" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="lrate" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="gwo" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="53">
   <si>
     <t xml:space="preserve">Problem </t>
   </si>
@@ -179,16 +180,21 @@
   <si>
     <t xml:space="preserve">Gao(200,0.05,Similar)</t>
   </si>
+  <si>
+    <t xml:space="preserve">gwo(doublebox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwo(similarity)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
     <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -286,60 +292,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -355,6 +357,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -363,7 +471,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1935,9 +2043,9 @@
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="20.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,9 +2066,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2558,9 +2664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
-      <c r="B38" s="12" t="n">
+      <c r="B38" s="5" t="n">
         <f aca="false">SUM(B3:B37)</f>
         <v>142637.61</v>
       </c>
@@ -4150,13 +4256,13 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4984,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="n">
         <f aca="false">SUM(B2:B36)</f>
@@ -5029,7 +5135,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5042,10 +5148,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="8" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="8" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,6 +6007,668 @@
       <c r="G37" s="7" t="n">
         <f aca="false">AVERAGE(G2:G36)</f>
         <v>0.966665714285714</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Κανονικά"&amp;12&amp;KffffffΣελίδα &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.26"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5785</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2927</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>5905</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2893</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5789</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>2430</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>6232</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>5656</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2074</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.9333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6721</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>10938</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2392</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>18947</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3564</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>20104</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5631</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>9519</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>7978</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>5953</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>0.9667</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>18645</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>3427</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>0.1333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>8087</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>2290</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>8473</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>11851</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>12433</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>15099</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>2544</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>5805</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>20103</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>4925</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>22101</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>5662</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>20114</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>6752</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>9796</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>0.6333</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>13431</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1472</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>14577</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>0.5667</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>8910</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.9333</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>11341</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>0.7333</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>15355</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>0.7667</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>0.5333</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>15450</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>1631</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.4667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>12801</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>10992</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>0.5667</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0.8333</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>11782</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>0.5333</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0.6667</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>4979</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1527</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>5385</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="n">
+        <f aca="false">SUM(B3:B37)</f>
+        <v>390921</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <f aca="false">AVERAGE(C3:C37)</f>
+        <v>0.893334285714286</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <f aca="false">SUM(D3:D37)</f>
+        <v>82778</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <f aca="false">AVERAGE(E3:E37)</f>
+        <v>0.846662857142857</v>
       </c>
     </row>
   </sheetData>
